--- a/data/pca/factorExposure/factorExposure_2018-10-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-10-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03938303817945466</v>
+        <v>-0.03500906789396637</v>
       </c>
       <c r="C2">
-        <v>0.05140956324877043</v>
+        <v>-0.006824772410366795</v>
       </c>
       <c r="D2">
-        <v>0.03163078910540366</v>
+        <v>-0.01079750405252192</v>
       </c>
       <c r="E2">
-        <v>0.05887726782285675</v>
+        <v>0.01559385972228317</v>
       </c>
       <c r="F2">
-        <v>-0.1344514019108362</v>
+        <v>-0.0273272132389889</v>
       </c>
       <c r="G2">
-        <v>0.1147201734769025</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.07526493875346081</v>
+      </c>
+      <c r="H2">
+        <v>0.01845542457820694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1384775130851666</v>
+        <v>-0.0879123594055987</v>
       </c>
       <c r="C3">
-        <v>0.01124214156630859</v>
+        <v>0.03521859574096296</v>
       </c>
       <c r="D3">
-        <v>0.03331454991834062</v>
+        <v>-0.02708550141579298</v>
       </c>
       <c r="E3">
-        <v>0.08856166886606834</v>
+        <v>0.01010525272125062</v>
       </c>
       <c r="F3">
-        <v>-0.3584382698731737</v>
+        <v>0.0003268785141312705</v>
       </c>
       <c r="G3">
-        <v>0.2648185628735642</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.2655440735879909</v>
+      </c>
+      <c r="H3">
+        <v>0.03011514418356614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04477474926837632</v>
+        <v>-0.04567618876737679</v>
       </c>
       <c r="C4">
-        <v>0.03518261241220434</v>
+        <v>0.004613839999539757</v>
       </c>
       <c r="D4">
-        <v>-0.00711440261270418</v>
+        <v>-0.02289439420358053</v>
       </c>
       <c r="E4">
-        <v>0.06593984563081663</v>
+        <v>-0.02017841751230858</v>
       </c>
       <c r="F4">
-        <v>-0.0587478131997633</v>
+        <v>-0.06304615887508928</v>
       </c>
       <c r="G4">
-        <v>0.05692434355894345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.0405580835085613</v>
+      </c>
+      <c r="H4">
+        <v>0.03090268281588825</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.009967021140866721</v>
+        <v>-0.03126294276520326</v>
       </c>
       <c r="C6">
-        <v>0.001155027317485835</v>
+        <v>0.003661571743934529</v>
       </c>
       <c r="D6">
-        <v>0.01005448575124779</v>
+        <v>-0.03087485279303168</v>
       </c>
       <c r="E6">
-        <v>0.007430118158936515</v>
+        <v>-0.003187016036162909</v>
       </c>
       <c r="F6">
-        <v>-0.01208620610290554</v>
+        <v>-0.03976107692454001</v>
       </c>
       <c r="G6">
-        <v>-0.0154456122330736</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.00817772037907836</v>
+      </c>
+      <c r="H6">
+        <v>0.05197578894007834</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02664246886040691</v>
+        <v>-0.02280632821256857</v>
       </c>
       <c r="C7">
-        <v>0.0187537587452935</v>
+        <v>0.002784996425463928</v>
       </c>
       <c r="D7">
-        <v>0.02615923961663437</v>
+        <v>-0.01756731637971096</v>
       </c>
       <c r="E7">
-        <v>0.04208208726477751</v>
+        <v>-0.03492495667847329</v>
       </c>
       <c r="F7">
-        <v>-0.0692660978229177</v>
+        <v>-0.02651353593605957</v>
       </c>
       <c r="G7">
-        <v>0.05812076224481839</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.03249555395702691</v>
+      </c>
+      <c r="H7">
+        <v>0.01792549653780609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008716929386991619</v>
+        <v>-0.00144996964846109</v>
       </c>
       <c r="C8">
-        <v>0.00769621589400704</v>
+        <v>0.0008385604145585615</v>
       </c>
       <c r="D8">
-        <v>-0.008194630201605007</v>
+        <v>-0.01577580408679195</v>
       </c>
       <c r="E8">
-        <v>0.07269729426914522</v>
+        <v>-0.01216251911253395</v>
       </c>
       <c r="F8">
-        <v>-0.0918279052584331</v>
+        <v>-0.0281018433868671</v>
       </c>
       <c r="G8">
-        <v>0.06673533477437191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.04945927755994067</v>
+      </c>
+      <c r="H8">
+        <v>0.009925372017140248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03622583141114907</v>
+        <v>-0.03639493499079843</v>
       </c>
       <c r="C9">
-        <v>0.02813896272412096</v>
+        <v>0.006962489831679196</v>
       </c>
       <c r="D9">
-        <v>-0.02250602633782783</v>
+        <v>-0.01993442960804046</v>
       </c>
       <c r="E9">
-        <v>0.0683398124686837</v>
+        <v>-0.01907413543286648</v>
       </c>
       <c r="F9">
-        <v>-0.07117358679149043</v>
+        <v>-0.04012795292500208</v>
       </c>
       <c r="G9">
-        <v>0.03855275076993502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.05875352694542128</v>
+      </c>
+      <c r="H9">
+        <v>0.0324076378963064</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05053484773855489</v>
+        <v>-0.07266828208863241</v>
       </c>
       <c r="C10">
-        <v>0.05684963282361118</v>
+        <v>0.03948932932450874</v>
       </c>
       <c r="D10">
-        <v>-0.01582976977713853</v>
+        <v>0.1454883851545757</v>
       </c>
       <c r="E10">
-        <v>-0.1193442249249073</v>
+        <v>0.01312922534744679</v>
       </c>
       <c r="F10">
-        <v>-0.0630409948885393</v>
+        <v>0.0897723014291814</v>
       </c>
       <c r="G10">
-        <v>-0.008446207493923353</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.03716205118899368</v>
+      </c>
+      <c r="H10">
+        <v>0.008235320141871475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03118034822867052</v>
+        <v>-0.02262432874691701</v>
       </c>
       <c r="C11">
-        <v>0.01091339929573434</v>
+        <v>0.0136628601350179</v>
       </c>
       <c r="D11">
-        <v>0.01219396260088366</v>
+        <v>-0.02961348784774203</v>
       </c>
       <c r="E11">
-        <v>0.03359903728355518</v>
+        <v>0.005283518682966077</v>
       </c>
       <c r="F11">
-        <v>-0.0374922093329292</v>
+        <v>-0.02525971905723907</v>
       </c>
       <c r="G11">
-        <v>0.02108676441275572</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.0316309242623122</v>
+      </c>
+      <c r="H11">
+        <v>0.02949364448803669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0386883216344433</v>
+        <v>-0.03117560428496522</v>
       </c>
       <c r="C12">
-        <v>0.01147189064707413</v>
+        <v>0.01352989143665708</v>
       </c>
       <c r="D12">
-        <v>0.002495867353024539</v>
+        <v>-0.03024353724568129</v>
       </c>
       <c r="E12">
-        <v>0.04698245257861816</v>
+        <v>-0.00500804228582539</v>
       </c>
       <c r="F12">
-        <v>-0.02471419888699126</v>
+        <v>-0.02903656483411424</v>
       </c>
       <c r="G12">
-        <v>0.01474496690975732</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.00654872099704076</v>
+      </c>
+      <c r="H12">
+        <v>0.01678086498677893</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.02093268647865295</v>
+        <v>-0.02876305040874247</v>
       </c>
       <c r="C13">
-        <v>0.02031868601926232</v>
+        <v>-0.007528060462158718</v>
       </c>
       <c r="D13">
-        <v>0.03124617017678389</v>
+        <v>-0.002227578003907222</v>
       </c>
       <c r="E13">
-        <v>0.02809132564983592</v>
+        <v>0.01597862132535836</v>
       </c>
       <c r="F13">
-        <v>-0.08331321920393239</v>
+        <v>-0.02022864900720928</v>
       </c>
       <c r="G13">
-        <v>0.05857986539575514</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.05925579190180967</v>
+      </c>
+      <c r="H13">
+        <v>0.02653741751247325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01101492840884457</v>
+        <v>-0.01580643711754206</v>
       </c>
       <c r="C14">
-        <v>0.02186307612540168</v>
+        <v>0.003255151063134155</v>
       </c>
       <c r="D14">
-        <v>0.001603329834632687</v>
+        <v>-0.000918083688270828</v>
       </c>
       <c r="E14">
-        <v>0.03900755995674439</v>
+        <v>-0.007473885252894705</v>
       </c>
       <c r="F14">
-        <v>-0.0639018119851036</v>
+        <v>-0.02608621622283219</v>
       </c>
       <c r="G14">
-        <v>0.06075392114542691</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.03841962057464559</v>
+      </c>
+      <c r="H14">
+        <v>-0.01844560480360764</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02444851874446246</v>
+        <v>-0.02265245804142405</v>
       </c>
       <c r="C16">
-        <v>0.01187618866589231</v>
+        <v>0.01372343146008984</v>
       </c>
       <c r="D16">
-        <v>0.01109265183226093</v>
+        <v>-0.02945025475718241</v>
       </c>
       <c r="E16">
-        <v>0.03594556232063516</v>
+        <v>0.000546403979717189</v>
       </c>
       <c r="F16">
-        <v>-0.03848123718681255</v>
+        <v>-0.02828422088982193</v>
       </c>
       <c r="G16">
-        <v>0.02734501107799154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02467477499586303</v>
+      </c>
+      <c r="H16">
+        <v>0.0226356338616476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03630350910302885</v>
+        <v>-0.0358467290083536</v>
       </c>
       <c r="C19">
-        <v>0.01316906333516264</v>
+        <v>0.008414801419009786</v>
       </c>
       <c r="D19">
-        <v>0.01871815021994594</v>
+        <v>-0.007990737854355969</v>
       </c>
       <c r="E19">
-        <v>0.04249960848535921</v>
+        <v>0.002777171005659136</v>
       </c>
       <c r="F19">
-        <v>-0.09575869817706444</v>
+        <v>-0.0314681117560778</v>
       </c>
       <c r="G19">
-        <v>0.06518208657235824</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.06265312836688829</v>
+      </c>
+      <c r="H19">
+        <v>0.03991063806146172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001311655560519713</v>
+        <v>-0.009356394059501245</v>
       </c>
       <c r="C20">
-        <v>0.01517887185839454</v>
+        <v>-0.005513532271596692</v>
       </c>
       <c r="D20">
-        <v>0.002864045359303818</v>
+        <v>-0.00780913280613233</v>
       </c>
       <c r="E20">
-        <v>0.04285118813889614</v>
+        <v>-0.002899272576634807</v>
       </c>
       <c r="F20">
-        <v>-0.05763254429352715</v>
+        <v>-0.01779227962192885</v>
       </c>
       <c r="G20">
-        <v>0.07340906058338945</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04534155605239881</v>
+      </c>
+      <c r="H20">
+        <v>-0.01118909741666431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.004446315816706813</v>
+        <v>-0.02232272801745561</v>
       </c>
       <c r="C21">
-        <v>-0.00152830203973308</v>
+        <v>-0.00185005931661575</v>
       </c>
       <c r="D21">
-        <v>0.00776004295028026</v>
+        <v>0.0006576720200090308</v>
       </c>
       <c r="E21">
-        <v>0.03307395123870221</v>
+        <v>-0.01147921486556359</v>
       </c>
       <c r="F21">
-        <v>-0.09112603451970375</v>
+        <v>-0.008136208535673642</v>
       </c>
       <c r="G21">
-        <v>0.02505766053382377</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.05516971125693776</v>
+      </c>
+      <c r="H21">
+        <v>0.01298060979963568</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02659458267246839</v>
+        <v>-0.02329878700141803</v>
       </c>
       <c r="C24">
-        <v>0.01071237507122844</v>
+        <v>0.00883874178794535</v>
       </c>
       <c r="D24">
-        <v>0.007739500752694783</v>
+        <v>-0.02729025076720604</v>
       </c>
       <c r="E24">
-        <v>0.02957093499839684</v>
+        <v>0.0005234822819783126</v>
       </c>
       <c r="F24">
-        <v>-0.04044180140829658</v>
+        <v>-0.02273436029621918</v>
       </c>
       <c r="G24">
-        <v>0.01325881368522564</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02631898780859826</v>
+      </c>
+      <c r="H24">
+        <v>0.03019177438113734</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02963191100563408</v>
+        <v>-0.03330877813095151</v>
       </c>
       <c r="C25">
-        <v>0.009884459315091092</v>
+        <v>0.009041431617961332</v>
       </c>
       <c r="D25">
-        <v>0.005961924489647834</v>
+        <v>-0.02091496730268021</v>
       </c>
       <c r="E25">
-        <v>0.03517134231943143</v>
+        <v>-3.536783198768654e-05</v>
       </c>
       <c r="F25">
-        <v>-0.04357152882037065</v>
+        <v>-0.0275467180454759</v>
       </c>
       <c r="G25">
-        <v>0.006268100726438977</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.03204578945513192</v>
+      </c>
+      <c r="H25">
+        <v>0.0328178623649449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01727660386752974</v>
+        <v>-0.02045897145316396</v>
       </c>
       <c r="C26">
-        <v>-0.000562474970287677</v>
+        <v>-0.01464167997056862</v>
       </c>
       <c r="D26">
-        <v>0.0326378967807277</v>
+        <v>-0.008102934324302888</v>
       </c>
       <c r="E26">
-        <v>0.04722674903317905</v>
+        <v>0.006022824156577941</v>
       </c>
       <c r="F26">
-        <v>-0.05953574279822578</v>
+        <v>-0.006835301335584696</v>
       </c>
       <c r="G26">
-        <v>0.03460074724883548</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03580897560191489</v>
+      </c>
+      <c r="H26">
+        <v>0.00272160797218679</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.07039666988127873</v>
+        <v>-0.03158534873625158</v>
       </c>
       <c r="C27">
-        <v>0.05207249214493018</v>
+        <v>0.01969586878895922</v>
       </c>
       <c r="D27">
-        <v>-0.006431461194436151</v>
+        <v>-0.001056804175879469</v>
       </c>
       <c r="E27">
-        <v>0.04823339904041374</v>
+        <v>-0.00360389657981715</v>
       </c>
       <c r="F27">
-        <v>-0.0619858124401709</v>
+        <v>-0.02499253284718342</v>
       </c>
       <c r="G27">
-        <v>0.05800265829805987</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.02546257961960467</v>
+      </c>
+      <c r="H27">
+        <v>0.0003640304133800275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.07451746591863762</v>
+        <v>-0.1149854822569863</v>
       </c>
       <c r="C28">
-        <v>0.07398722915473731</v>
+        <v>0.04767907058018643</v>
       </c>
       <c r="D28">
-        <v>-0.03437913541877403</v>
+        <v>0.2152529957635823</v>
       </c>
       <c r="E28">
-        <v>-0.1888646232861507</v>
+        <v>0.01385386766909906</v>
       </c>
       <c r="F28">
-        <v>-0.06063957153669246</v>
+        <v>0.1270958354418204</v>
       </c>
       <c r="G28">
-        <v>0.02096496929903797</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.01835032784427383</v>
+      </c>
+      <c r="H28">
+        <v>-0.005931169678857594</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01927380414564636</v>
+        <v>-0.02077495148767243</v>
       </c>
       <c r="C29">
-        <v>0.02247395149580385</v>
+        <v>0.006497576108719254</v>
       </c>
       <c r="D29">
-        <v>-0.003384766585127217</v>
+        <v>-0.003359742785187248</v>
       </c>
       <c r="E29">
-        <v>0.05844197906290693</v>
+        <v>-0.008426056758551549</v>
       </c>
       <c r="F29">
-        <v>-0.05494304513772513</v>
+        <v>-0.0287803724405107</v>
       </c>
       <c r="G29">
-        <v>0.05684983096567106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03256946822053733</v>
+      </c>
+      <c r="H29">
+        <v>-0.01692042376254079</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.07781053791940207</v>
+        <v>-0.05612316362899956</v>
       </c>
       <c r="C30">
-        <v>0.05801772040031508</v>
+        <v>0.009175734308420239</v>
       </c>
       <c r="D30">
-        <v>0.03359612400125427</v>
+        <v>-0.04395513600128861</v>
       </c>
       <c r="E30">
-        <v>0.09891328723861716</v>
+        <v>0.03944195172687473</v>
       </c>
       <c r="F30">
-        <v>-0.07569935340399007</v>
+        <v>-0.08284039847009167</v>
       </c>
       <c r="G30">
-        <v>0.02711190931754996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.06411222006697759</v>
+      </c>
+      <c r="H30">
+        <v>0.04019923317040162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05614513606890319</v>
+        <v>-0.0523566038142872</v>
       </c>
       <c r="C31">
-        <v>0.02240394744845334</v>
+        <v>0.02585624675959462</v>
       </c>
       <c r="D31">
-        <v>0.04566289217029298</v>
+        <v>-0.01602368049150323</v>
       </c>
       <c r="E31">
-        <v>0.03144909419715955</v>
+        <v>0.01218091343921874</v>
       </c>
       <c r="F31">
-        <v>-0.03714251002208468</v>
+        <v>-0.02186300820932957</v>
       </c>
       <c r="G31">
-        <v>0.08409716339285854</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01442919881662957</v>
+      </c>
+      <c r="H31">
+        <v>-0.01326247444091674</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01159665561418229</v>
+        <v>-0.00610862827893322</v>
       </c>
       <c r="C32">
-        <v>0.02033616380904449</v>
+        <v>0.01524695908131374</v>
       </c>
       <c r="D32">
-        <v>-0.006984635304500284</v>
+        <v>0.002076544184574202</v>
       </c>
       <c r="E32">
-        <v>0.08075001921265176</v>
+        <v>-0.0194801597965162</v>
       </c>
       <c r="F32">
-        <v>-0.07224534613100346</v>
+        <v>-0.0441393372783194</v>
       </c>
       <c r="G32">
-        <v>0.04726984459687968</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.04506035222312434</v>
+      </c>
+      <c r="H32">
+        <v>0.04494552854879906</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04846328508375627</v>
+        <v>-0.03926806656049939</v>
       </c>
       <c r="C33">
-        <v>0.004299763008332656</v>
+        <v>0.008727362766462214</v>
       </c>
       <c r="D33">
-        <v>0.03983289779361339</v>
+        <v>-0.02865948029050378</v>
       </c>
       <c r="E33">
-        <v>0.06737650056767597</v>
+        <v>0.02388927389764706</v>
       </c>
       <c r="F33">
-        <v>-0.09266068872961518</v>
+        <v>-0.01748076985825332</v>
       </c>
       <c r="G33">
-        <v>0.04795424269577502</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.05710559135303923</v>
+      </c>
+      <c r="H33">
+        <v>0.02064480941563855</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02825092150422858</v>
+        <v>-0.02464472744757776</v>
       </c>
       <c r="C34">
-        <v>0.01692250278129699</v>
+        <v>0.02246968866167999</v>
       </c>
       <c r="D34">
-        <v>0.009355779874451324</v>
+        <v>-0.02513103404383154</v>
       </c>
       <c r="E34">
-        <v>0.03782844367226815</v>
+        <v>-0.003675178561538564</v>
       </c>
       <c r="F34">
-        <v>-0.04541109393153032</v>
+        <v>-0.02796826210862672</v>
       </c>
       <c r="G34">
-        <v>0.01150852768461971</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02492288366930788</v>
+      </c>
+      <c r="H34">
+        <v>0.02805452829418863</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01211695086743906</v>
+        <v>-0.01842114929047859</v>
       </c>
       <c r="C36">
-        <v>0.009868485415177288</v>
+        <v>-0.00127946186279654</v>
       </c>
       <c r="D36">
-        <v>0.000266277157905271</v>
+        <v>0.001247889247346158</v>
       </c>
       <c r="E36">
-        <v>0.03010272125114104</v>
+        <v>-0.002618936691402972</v>
       </c>
       <c r="F36">
-        <v>-0.03303129129817722</v>
+        <v>-0.007044831584610074</v>
       </c>
       <c r="G36">
-        <v>0.03266819502725448</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02123000273532888</v>
+      </c>
+      <c r="H36">
+        <v>-0.001170235957871999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005784337263044228</v>
+        <v>-0.01300222913411821</v>
       </c>
       <c r="C38">
-        <v>-0.002184894104610089</v>
+        <v>0.01757122518646977</v>
       </c>
       <c r="D38">
-        <v>-0.01538753812755422</v>
+        <v>0.000706798731813432</v>
       </c>
       <c r="E38">
-        <v>-0.005844648398460205</v>
+        <v>-0.007131921975262915</v>
       </c>
       <c r="F38">
-        <v>-0.008457285662137538</v>
+        <v>-0.0096806971655256</v>
       </c>
       <c r="G38">
-        <v>-0.0007792474122819289</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.0242493504412491</v>
+      </c>
+      <c r="H38">
+        <v>0.01954927809954101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0358448482735137</v>
+        <v>-0.02642736654090919</v>
       </c>
       <c r="C39">
-        <v>0.02397971144487978</v>
+        <v>0.008528270111635297</v>
       </c>
       <c r="D39">
-        <v>0.02475850038860112</v>
+        <v>-0.06009078799573383</v>
       </c>
       <c r="E39">
-        <v>0.03739041588668637</v>
+        <v>0.005673064499766315</v>
       </c>
       <c r="F39">
-        <v>-0.04900794557378678</v>
+        <v>-0.05063002146997679</v>
       </c>
       <c r="G39">
-        <v>0.01893908164033867</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.04903134484429439</v>
+      </c>
+      <c r="H39">
+        <v>0.05236958110228882</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02813829509567674</v>
+        <v>-0.03050669312450218</v>
       </c>
       <c r="C40">
-        <v>0.03758029482821708</v>
+        <v>0.007608400663973629</v>
       </c>
       <c r="D40">
-        <v>0.0482339909851257</v>
+        <v>-0.01894348033491594</v>
       </c>
       <c r="E40">
-        <v>0.05083273653594224</v>
+        <v>0.01995564950033097</v>
       </c>
       <c r="F40">
-        <v>-0.07596149799280971</v>
+        <v>-0.03972057597958351</v>
       </c>
       <c r="G40">
-        <v>0.07556077077880576</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.03484477747854222</v>
+      </c>
+      <c r="H40">
+        <v>0.04839227723039528</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.004184922209504203</v>
+        <v>-0.007268373988563451</v>
       </c>
       <c r="C41">
-        <v>-0.008317187543994933</v>
+        <v>-0.0004454640872673491</v>
       </c>
       <c r="D41">
-        <v>0.006529815343802871</v>
+        <v>0.006096250848528075</v>
       </c>
       <c r="E41">
-        <v>0.01854751411600883</v>
+        <v>0.001205386155703102</v>
       </c>
       <c r="F41">
-        <v>-0.01871304745925475</v>
+        <v>0.005872516662245692</v>
       </c>
       <c r="G41">
-        <v>0.05859417636894772</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.006079988332094404</v>
+      </c>
+      <c r="H41">
+        <v>-0.01753242335341655</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.4108073936619462</v>
+        <v>-0.2551855570857737</v>
       </c>
       <c r="C42">
-        <v>-0.8611630217878741</v>
+        <v>-0.04642324298350282</v>
       </c>
       <c r="D42">
-        <v>0.2014488247181762</v>
+        <v>-0.6115807330059603</v>
       </c>
       <c r="E42">
-        <v>-0.1244631809474247</v>
+        <v>0.1436127511718684</v>
       </c>
       <c r="F42">
-        <v>0.02602988585749905</v>
+        <v>0.7163702428172734</v>
       </c>
       <c r="G42">
-        <v>-0.002952983541399367</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.08327713621540089</v>
+      </c>
+      <c r="H42">
+        <v>0.02421762952012939</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01027581820158096</v>
+        <v>-0.004910439601921612</v>
       </c>
       <c r="C43">
-        <v>-0.004033186815360936</v>
+        <v>-0.003142826184363073</v>
       </c>
       <c r="D43">
-        <v>0.01102068095493287</v>
+        <v>0.008192495270458769</v>
       </c>
       <c r="E43">
-        <v>0.02098601175770628</v>
+        <v>0.005057647613772032</v>
       </c>
       <c r="F43">
-        <v>-0.03470910165176565</v>
+        <v>0.01008731623602218</v>
       </c>
       <c r="G43">
-        <v>0.05449675133716083</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.01398530364294953</v>
+      </c>
+      <c r="H43">
+        <v>-0.01085045858843812</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01889382048900553</v>
+        <v>-0.0121078516451329</v>
       </c>
       <c r="C44">
-        <v>0.004019894233946107</v>
+        <v>0.001810347534401841</v>
       </c>
       <c r="D44">
-        <v>0.02016307381662148</v>
+        <v>-0.02662356562369889</v>
       </c>
       <c r="E44">
-        <v>0.06520845971679107</v>
+        <v>-0.002105119926483013</v>
       </c>
       <c r="F44">
-        <v>-0.1835987643483293</v>
+        <v>-0.01024831531054603</v>
       </c>
       <c r="G44">
-        <v>0.1795107676244199</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.08477804722928796</v>
+      </c>
+      <c r="H44">
+        <v>0.01609567034413421</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01666830960045407</v>
+        <v>-0.02144652226848802</v>
       </c>
       <c r="C46">
-        <v>0.02102093762263291</v>
+        <v>0.002746418516588633</v>
       </c>
       <c r="D46">
-        <v>0.01374013744037966</v>
+        <v>-0.005715212711678558</v>
       </c>
       <c r="E46">
-        <v>0.05511393716623084</v>
+        <v>0.003714467216885068</v>
       </c>
       <c r="F46">
-        <v>-0.05857878024678827</v>
+        <v>-0.03402319336245681</v>
       </c>
       <c r="G46">
-        <v>0.04384142685116151</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.04764826679843383</v>
+      </c>
+      <c r="H46">
+        <v>-0.0142784723922653</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09210995047907747</v>
+        <v>-0.07156734368637073</v>
       </c>
       <c r="C47">
-        <v>0.03729353578350487</v>
+        <v>0.0461626115108385</v>
       </c>
       <c r="D47">
-        <v>0.02399288239601603</v>
+        <v>-0.01901954437661751</v>
       </c>
       <c r="E47">
-        <v>0.04836069146950549</v>
+        <v>0.008093530865693281</v>
       </c>
       <c r="F47">
-        <v>0.0001100351387873744</v>
+        <v>-0.03360558414772415</v>
       </c>
       <c r="G47">
-        <v>0.07361966729383405</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.01799753648447118</v>
+      </c>
+      <c r="H47">
+        <v>-0.02802725034464988</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0072367180765575</v>
+        <v>-0.01625231265450579</v>
       </c>
       <c r="C48">
-        <v>0.005171772423920282</v>
+        <v>0.008342881661330919</v>
       </c>
       <c r="D48">
-        <v>0.01144539621088992</v>
+        <v>-0.004638764983301523</v>
       </c>
       <c r="E48">
-        <v>0.04456288193734294</v>
+        <v>0.001356706913870142</v>
       </c>
       <c r="F48">
-        <v>-0.04835788011171323</v>
+        <v>-0.01255977993148596</v>
       </c>
       <c r="G48">
-        <v>0.00962805709176223</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.0267997186841624</v>
+      </c>
+      <c r="H48">
+        <v>0.004699954491732896</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08416676552491546</v>
+        <v>-0.06546528021639225</v>
       </c>
       <c r="C50">
-        <v>0.02310998863708466</v>
+        <v>0.03946203439004602</v>
       </c>
       <c r="D50">
-        <v>0.03627913784321549</v>
+        <v>-0.0335949639023696</v>
       </c>
       <c r="E50">
-        <v>0.05204167743112315</v>
+        <v>-0.005053343184901822</v>
       </c>
       <c r="F50">
-        <v>-0.02350961459248911</v>
+        <v>-0.03342091739220848</v>
       </c>
       <c r="G50">
-        <v>0.01068803097280946</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01425820459763964</v>
+      </c>
+      <c r="H50">
+        <v>-0.02334359865146637</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.04030859066836531</v>
+        <v>-0.02703542969078183</v>
       </c>
       <c r="C51">
-        <v>-0.0001164279635428272</v>
+        <v>0.006210683786614221</v>
       </c>
       <c r="D51">
-        <v>0.0453115644843537</v>
+        <v>0.00239274621773403</v>
       </c>
       <c r="E51">
-        <v>0.02221946442656681</v>
+        <v>0.0136989966271147</v>
       </c>
       <c r="F51">
-        <v>-0.1556796562011764</v>
+        <v>0.01709119650042046</v>
       </c>
       <c r="G51">
-        <v>0.07288077805119644</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.08252199475715306</v>
+      </c>
+      <c r="H51">
+        <v>0.02487177354184315</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1021037125209379</v>
+        <v>-0.09193426369283349</v>
       </c>
       <c r="C53">
-        <v>0.04996592332652028</v>
+        <v>0.05860345249004158</v>
       </c>
       <c r="D53">
-        <v>0.03952554190980711</v>
+        <v>-0.04159280760611314</v>
       </c>
       <c r="E53">
-        <v>0.06278648065218276</v>
+        <v>0.006976413879215641</v>
       </c>
       <c r="F53">
-        <v>0.06132489038454912</v>
+        <v>-0.06809216952251788</v>
       </c>
       <c r="G53">
-        <v>0.03069625602515024</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.06118673064139137</v>
+      </c>
+      <c r="H53">
+        <v>-0.03230194785127014</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02113146964461894</v>
+        <v>-0.02204344839976053</v>
       </c>
       <c r="C54">
-        <v>0.038659924557336</v>
+        <v>0.01778272206234782</v>
       </c>
       <c r="D54">
-        <v>0.002396096728218345</v>
+        <v>0.02321458213410618</v>
       </c>
       <c r="E54">
-        <v>0.03475042359893462</v>
+        <v>-0.003349742843685169</v>
       </c>
       <c r="F54">
-        <v>-0.07156076301111432</v>
+        <v>-0.01209640925319249</v>
       </c>
       <c r="G54">
-        <v>0.06322673150956917</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.04099608050209179</v>
+      </c>
+      <c r="H54">
+        <v>-0.02081964661320765</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1019354904011168</v>
+        <v>-0.07975860181924981</v>
       </c>
       <c r="C55">
-        <v>0.03613814311188059</v>
+        <v>0.05180931610834179</v>
       </c>
       <c r="D55">
-        <v>-0.005000550948237651</v>
+        <v>-0.043159176564369</v>
       </c>
       <c r="E55">
-        <v>0.06307828136513056</v>
+        <v>-0.005860347268111639</v>
       </c>
       <c r="F55">
-        <v>0.05745927851685515</v>
+        <v>-0.05808177564009362</v>
       </c>
       <c r="G55">
-        <v>0.0512718285094224</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.03938912718418738</v>
+      </c>
+      <c r="H55">
+        <v>-0.04902793366638374</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1393844547844097</v>
+        <v>-0.1195696482209629</v>
       </c>
       <c r="C56">
-        <v>0.07726689791563449</v>
+        <v>0.0832599956043449</v>
       </c>
       <c r="D56">
-        <v>0.02191760677025309</v>
+        <v>-0.05428390860188017</v>
       </c>
       <c r="E56">
-        <v>0.08061714780435068</v>
+        <v>0.002511341959549849</v>
       </c>
       <c r="F56">
-        <v>0.1604540288065515</v>
+        <v>-0.0952122891374082</v>
       </c>
       <c r="G56">
-        <v>0.01520914601460747</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1044544000665345</v>
+      </c>
+      <c r="H56">
+        <v>-0.02383295625443982</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04003807334021649</v>
+        <v>-0.04236380506084834</v>
       </c>
       <c r="C57">
-        <v>0.01736234968813587</v>
+        <v>-0.001219521648295636</v>
       </c>
       <c r="D57">
-        <v>0.02833099824794943</v>
+        <v>-0.01806095625324155</v>
       </c>
       <c r="E57">
-        <v>0.0239869345914499</v>
+        <v>0.01260770545611556</v>
       </c>
       <c r="F57">
-        <v>-0.07608772380495045</v>
+        <v>-0.02772343790771094</v>
       </c>
       <c r="G57">
-        <v>0.0325932429055323</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.06569132950146585</v>
+      </c>
+      <c r="H57">
+        <v>0.01248406423084982</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2077130626359809</v>
+        <v>-0.1554733140456077</v>
       </c>
       <c r="C58">
-        <v>0.06992132440361547</v>
+        <v>0.08154690663436749</v>
       </c>
       <c r="D58">
-        <v>0.1082240661066423</v>
+        <v>-0.1113205802949419</v>
       </c>
       <c r="E58">
-        <v>0.1977656964693395</v>
+        <v>0.1283317865072493</v>
       </c>
       <c r="F58">
-        <v>-0.3075772236088773</v>
+        <v>-0.07475097662661234</v>
       </c>
       <c r="G58">
-        <v>-0.3479102360494229</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.6716107495009267</v>
+      </c>
+      <c r="H58">
+        <v>-0.5652897435998182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.07376246224797153</v>
+        <v>-0.1162946797055046</v>
       </c>
       <c r="C59">
-        <v>0.09601846677505955</v>
+        <v>0.05527487766527904</v>
       </c>
       <c r="D59">
-        <v>-0.03113275746056539</v>
+        <v>0.2107046835859055</v>
       </c>
       <c r="E59">
-        <v>-0.1458931720381057</v>
+        <v>0.0277753408696419</v>
       </c>
       <c r="F59">
-        <v>-0.05774074177745681</v>
+        <v>0.1035030347331188</v>
       </c>
       <c r="G59">
-        <v>0.01030055193912207</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.02678321000665998</v>
+      </c>
+      <c r="H59">
+        <v>0.02446077751210104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1640500816379959</v>
+        <v>-0.1623987672169158</v>
       </c>
       <c r="C60">
-        <v>0.0786285344421664</v>
+        <v>0.07295376602452705</v>
       </c>
       <c r="D60">
-        <v>0.06316700416821268</v>
+        <v>0.008394289389796939</v>
       </c>
       <c r="E60">
-        <v>0.02004793969822425</v>
+        <v>0.05606950945400017</v>
       </c>
       <c r="F60">
-        <v>-0.100036085831666</v>
+        <v>-0.06863546360826842</v>
       </c>
       <c r="G60">
-        <v>-0.2732432503693064</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.1349305635797031</v>
+      </c>
+      <c r="H60">
+        <v>0.3592103279518019</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01889516303390249</v>
+        <v>-0.02232261619990802</v>
       </c>
       <c r="C61">
-        <v>0.0110083733714781</v>
+        <v>0.01173258800885228</v>
       </c>
       <c r="D61">
-        <v>0.003012195449634868</v>
+        <v>-0.03146607187576344</v>
       </c>
       <c r="E61">
-        <v>0.02112200627772864</v>
+        <v>-0.000937015545587501</v>
       </c>
       <c r="F61">
-        <v>-0.0424646670242925</v>
+        <v>-0.03516781715831176</v>
       </c>
       <c r="G61">
-        <v>0.005644046418184013</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.03139431869227544</v>
+      </c>
+      <c r="H61">
+        <v>0.03942488808716143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01651487905651916</v>
+        <v>-0.0141452944259892</v>
       </c>
       <c r="C63">
-        <v>0.01593833352847003</v>
+        <v>0.00157683355380303</v>
       </c>
       <c r="D63">
-        <v>0.01161200196572245</v>
+        <v>-0.005242592387058312</v>
       </c>
       <c r="E63">
-        <v>0.04526948149368581</v>
+        <v>-0.001163738990126178</v>
       </c>
       <c r="F63">
-        <v>-0.01848155796712879</v>
+        <v>-0.02201116478058906</v>
       </c>
       <c r="G63">
-        <v>0.03266997047526208</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01679566446917819</v>
+      </c>
+      <c r="H63">
+        <v>-0.007219077705216266</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.02859406001603611</v>
+        <v>-0.03854327704445027</v>
       </c>
       <c r="C64">
-        <v>0.02084845917214481</v>
+        <v>0.01881868413210083</v>
       </c>
       <c r="D64">
-        <v>-0.02021568245347717</v>
+        <v>-0.02626933084518196</v>
       </c>
       <c r="E64">
-        <v>0.0467290860385799</v>
+        <v>-0.01125916916247186</v>
       </c>
       <c r="F64">
-        <v>-0.02353059832427721</v>
+        <v>-0.03201453263646946</v>
       </c>
       <c r="G64">
-        <v>0.06483697354815167</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.008171981368857838</v>
+      </c>
+      <c r="H64">
+        <v>0.03092636089402831</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01001910562035565</v>
+        <v>-0.03622781156295265</v>
       </c>
       <c r="C65">
-        <v>-0.0002147338276033874</v>
+        <v>0.004199882645101988</v>
       </c>
       <c r="D65">
-        <v>0.008745997074312669</v>
+        <v>-0.03399772127405004</v>
       </c>
       <c r="E65">
-        <v>0.003416160270583523</v>
+        <v>-0.003079252086995088</v>
       </c>
       <c r="F65">
-        <v>-0.008758801780082762</v>
+        <v>-0.03998138872910698</v>
       </c>
       <c r="G65">
-        <v>-0.01746597722835373</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.0008436394809881898</v>
+      </c>
+      <c r="H65">
+        <v>0.06094643413244169</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03661373165449396</v>
+        <v>-0.03306590006411471</v>
       </c>
       <c r="C66">
-        <v>0.02651021066427938</v>
+        <v>0.01549631912644816</v>
       </c>
       <c r="D66">
-        <v>0.01935945977263713</v>
+        <v>-0.06556184011782183</v>
       </c>
       <c r="E66">
-        <v>0.04664974168690588</v>
+        <v>0.01160111207778216</v>
       </c>
       <c r="F66">
-        <v>-0.05008170168339909</v>
+        <v>-0.07099976868419045</v>
       </c>
       <c r="G66">
-        <v>0.01238851224069301</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.04312941626805891</v>
+      </c>
+      <c r="H66">
+        <v>0.06317135963019678</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02547295828307646</v>
+        <v>-0.03181909880542859</v>
       </c>
       <c r="C67">
-        <v>0.009904140531845627</v>
+        <v>0.02463609485419483</v>
       </c>
       <c r="D67">
-        <v>-0.01544851049539186</v>
+        <v>0.01050147956851772</v>
       </c>
       <c r="E67">
-        <v>-0.02970887461229606</v>
+        <v>-0.003045940770839425</v>
       </c>
       <c r="F67">
-        <v>-0.0202525122162887</v>
+        <v>-0.01097012300470192</v>
       </c>
       <c r="G67">
-        <v>-0.001109505503807795</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.01595202145452481</v>
+      </c>
+      <c r="H67">
+        <v>0.03240972986364637</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08573319430681013</v>
+        <v>-0.1195510390617766</v>
       </c>
       <c r="C68">
-        <v>0.0797523871527554</v>
+        <v>0.03372951811760366</v>
       </c>
       <c r="D68">
-        <v>-0.04397317897935114</v>
+        <v>0.1972113310807787</v>
       </c>
       <c r="E68">
-        <v>-0.1817714747131737</v>
+        <v>0.02350551351965703</v>
       </c>
       <c r="F68">
-        <v>-0.008458075548767451</v>
+        <v>0.1208770468627997</v>
       </c>
       <c r="G68">
-        <v>-0.04479026772194192</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01410705127422413</v>
+      </c>
+      <c r="H68">
+        <v>-0.04963960406873111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07069670439397556</v>
+        <v>-0.05543249341454836</v>
       </c>
       <c r="C69">
-        <v>0.03763590434506295</v>
+        <v>0.040971274510442</v>
       </c>
       <c r="D69">
-        <v>0.02566018812484532</v>
+        <v>-0.01613644615270036</v>
       </c>
       <c r="E69">
-        <v>0.01198808360249913</v>
+        <v>0.00852049211199718</v>
       </c>
       <c r="F69">
-        <v>-0.02023912422201547</v>
+        <v>-0.03252288427549542</v>
       </c>
       <c r="G69">
-        <v>0.05975525864030889</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.005329601030360803</v>
+      </c>
+      <c r="H69">
+        <v>-0.008739307349288544</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.09919006539217426</v>
+        <v>-0.1150664942180747</v>
       </c>
       <c r="C71">
-        <v>0.08360849948558022</v>
+        <v>0.04212266230044159</v>
       </c>
       <c r="D71">
-        <v>-0.01905720864862339</v>
+        <v>0.1858559231558675</v>
       </c>
       <c r="E71">
-        <v>-0.2306731004137486</v>
+        <v>0.02709491784444887</v>
       </c>
       <c r="F71">
-        <v>-0.04290600674738105</v>
+        <v>0.1291172661247717</v>
       </c>
       <c r="G71">
-        <v>0.01131870738095395</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.02075022110603213</v>
+      </c>
+      <c r="H71">
+        <v>-0.02177816054352931</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1025590391879432</v>
+        <v>-0.08419601853998432</v>
       </c>
       <c r="C72">
-        <v>0.1196993599102751</v>
+        <v>0.06333728458752869</v>
       </c>
       <c r="D72">
-        <v>0.01711253648686879</v>
+        <v>-0.04445327700669276</v>
       </c>
       <c r="E72">
-        <v>0.09115414753654637</v>
+        <v>0.01320531675903614</v>
       </c>
       <c r="F72">
-        <v>-0.06586110014084127</v>
+        <v>-0.1285722199971832</v>
       </c>
       <c r="G72">
-        <v>-0.1469352696535269</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.08454709262112678</v>
+      </c>
+      <c r="H72">
+        <v>0.1390974239315338</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2401931276667065</v>
+        <v>-0.2303240223356011</v>
       </c>
       <c r="C73">
-        <v>0.1147722503148671</v>
+        <v>0.09761837114841181</v>
       </c>
       <c r="D73">
-        <v>0.06023506389100203</v>
+        <v>-0.0133403212231341</v>
       </c>
       <c r="E73">
-        <v>-0.03061558624068184</v>
+        <v>0.09119891172706172</v>
       </c>
       <c r="F73">
-        <v>-0.2158953915020028</v>
+        <v>-0.0792496894788122</v>
       </c>
       <c r="G73">
-        <v>-0.4333294516412037</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.2020469647996049</v>
+      </c>
+      <c r="H73">
+        <v>0.5100731584694186</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1194718817355076</v>
+        <v>-0.106645574677796</v>
       </c>
       <c r="C74">
-        <v>0.04244784050518573</v>
+        <v>0.07370616719403708</v>
       </c>
       <c r="D74">
-        <v>0.02391957369229008</v>
+        <v>-0.05302849260786984</v>
       </c>
       <c r="E74">
-        <v>0.04121538140315732</v>
+        <v>0.00851340346381421</v>
       </c>
       <c r="F74">
-        <v>0.1173099110022688</v>
+        <v>-0.07708330458747377</v>
       </c>
       <c r="G74">
-        <v>0.01344325688422719</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.09047447908865688</v>
+      </c>
+      <c r="H74">
+        <v>-0.0006176907349649222</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2170199054936256</v>
+        <v>-0.2151419049581454</v>
       </c>
       <c r="C75">
-        <v>0.1186587643570748</v>
+        <v>0.1503323025948926</v>
       </c>
       <c r="D75">
-        <v>0.06507021118019587</v>
+        <v>-0.06295370525532022</v>
       </c>
       <c r="E75">
-        <v>0.09227733863384807</v>
+        <v>0.03362213200869468</v>
       </c>
       <c r="F75">
-        <v>0.1793651546244989</v>
+        <v>-0.1490011615983569</v>
       </c>
       <c r="G75">
-        <v>0.08078394290648885</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1614244398940549</v>
+      </c>
+      <c r="H75">
+        <v>-0.08516705706845877</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2561736891624425</v>
+        <v>-0.2028200449962717</v>
       </c>
       <c r="C76">
-        <v>0.1338596226820073</v>
+        <v>0.1462711563597054</v>
       </c>
       <c r="D76">
-        <v>0.009303767935201972</v>
+        <v>-0.06541390038653754</v>
       </c>
       <c r="E76">
-        <v>0.07739974310512132</v>
+        <v>-0.007765941692160718</v>
       </c>
       <c r="F76">
-        <v>0.2073439746280492</v>
+        <v>-0.155685533727716</v>
       </c>
       <c r="G76">
-        <v>0.0862189475391188</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1800631395942385</v>
+      </c>
+      <c r="H76">
+        <v>-0.09405766480359533</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.132992519785706</v>
+        <v>-0.0761437712581791</v>
       </c>
       <c r="C77">
-        <v>-0.02033902081865586</v>
+        <v>0.02573049637800912</v>
       </c>
       <c r="D77">
-        <v>0.05963780869597299</v>
+        <v>-0.07754826112377787</v>
       </c>
       <c r="E77">
-        <v>0.08891992409053424</v>
+        <v>0.01586386570788529</v>
       </c>
       <c r="F77">
-        <v>-0.1965107528351737</v>
+        <v>-0.007518795438759947</v>
       </c>
       <c r="G77">
-        <v>0.1177634135975778</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.1146651575229438</v>
+      </c>
+      <c r="H77">
+        <v>-0.06301180638449884</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04919296584129764</v>
+        <v>-0.03651418269715057</v>
       </c>
       <c r="C78">
-        <v>0.01075225544455928</v>
+        <v>0.01825708427923039</v>
       </c>
       <c r="D78">
-        <v>0.0259352058703024</v>
+        <v>-0.04966431281100972</v>
       </c>
       <c r="E78">
-        <v>0.1034675166277342</v>
+        <v>-0.0008015265091541828</v>
       </c>
       <c r="F78">
-        <v>-0.03313104905169718</v>
+        <v>-0.05128678105495414</v>
       </c>
       <c r="G78">
-        <v>0.05536769191456739</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.04613973220852017</v>
+      </c>
+      <c r="H78">
+        <v>0.0311437090835035</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2113758581120782</v>
+        <v>-0.1748856605520442</v>
       </c>
       <c r="C80">
-        <v>-0.1575788762728519</v>
+        <v>0.09067524216062949</v>
       </c>
       <c r="D80">
-        <v>-0.9290945855587422</v>
+        <v>-0.05578481373029529</v>
       </c>
       <c r="E80">
-        <v>0.2072582816536302</v>
+        <v>-0.958357615472578</v>
       </c>
       <c r="F80">
-        <v>-0.04692644226471184</v>
+        <v>0.1072279580771313</v>
       </c>
       <c r="G80">
-        <v>-0.04282756989875462</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.1052797696138722</v>
+      </c>
+      <c r="H80">
+        <v>0.006249006217205362</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1533967934481519</v>
+        <v>-0.1456795727033826</v>
       </c>
       <c r="C81">
-        <v>0.1058799218100684</v>
+        <v>0.1019170081006924</v>
       </c>
       <c r="D81">
-        <v>0.02014981608512413</v>
+        <v>-0.03852660728783463</v>
       </c>
       <c r="E81">
-        <v>0.0715771329523212</v>
+        <v>0.007099437198358606</v>
       </c>
       <c r="F81">
-        <v>0.1826893840203707</v>
+        <v>-0.1085728373951651</v>
       </c>
       <c r="G81">
-        <v>0.01153053706837956</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1134003760169944</v>
+      </c>
+      <c r="H81">
+        <v>-0.06886579501394051</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05153490474186141</v>
+        <v>-0.03862056695121657</v>
       </c>
       <c r="C83">
-        <v>-0.01079236007058045</v>
+        <v>0.01579639668739566</v>
       </c>
       <c r="D83">
-        <v>0.03650330804278323</v>
+        <v>-0.02090588650537232</v>
       </c>
       <c r="E83">
-        <v>0.04401228145641457</v>
+        <v>0.01411544344795065</v>
       </c>
       <c r="F83">
-        <v>-0.07644876374625127</v>
+        <v>-0.01354200380949131</v>
       </c>
       <c r="G83">
-        <v>0.06664907732838514</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05477613197738757</v>
+      </c>
+      <c r="H83">
+        <v>0.019364047703321</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.22543505961147</v>
+        <v>-0.2054393697104227</v>
       </c>
       <c r="C85">
-        <v>0.1019706361243613</v>
+        <v>0.1301893034169277</v>
       </c>
       <c r="D85">
-        <v>0.0348640648111473</v>
+        <v>-0.08443528442532391</v>
       </c>
       <c r="E85">
-        <v>0.06489492758936193</v>
+        <v>0.02237561615859723</v>
       </c>
       <c r="F85">
-        <v>0.1995023721117152</v>
+        <v>-0.1409993110499267</v>
       </c>
       <c r="G85">
-        <v>0.07075642744459661</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1683499037842167</v>
+      </c>
+      <c r="H85">
+        <v>-0.06205588540119247</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.003028068748544651</v>
+        <v>-0.01075339026788596</v>
       </c>
       <c r="C86">
-        <v>-0.007977559035376572</v>
+        <v>-0.0008256161050025985</v>
       </c>
       <c r="D86">
-        <v>0.0023801303730317</v>
+        <v>-0.01384800130412517</v>
       </c>
       <c r="E86">
-        <v>0.07212556363861423</v>
+        <v>0.00634566810763873</v>
       </c>
       <c r="F86">
-        <v>-0.0716369490730704</v>
+        <v>-0.008256403999253087</v>
       </c>
       <c r="G86">
-        <v>0.05224147071625131</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.07235031754959868</v>
+      </c>
+      <c r="H86">
+        <v>0.04028466195160605</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02793473172104688</v>
+        <v>-0.02596679167412689</v>
       </c>
       <c r="C87">
-        <v>0.0089108390658399</v>
+        <v>0.00803728993947638</v>
       </c>
       <c r="D87">
-        <v>0.008138750141313255</v>
+        <v>-0.02396365199237489</v>
       </c>
       <c r="E87">
-        <v>0.03918063233494655</v>
+        <v>0.001919717945547038</v>
       </c>
       <c r="F87">
-        <v>-0.06214152507831809</v>
+        <v>-0.02891726403196582</v>
       </c>
       <c r="G87">
-        <v>0.01038930285322775</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.08507097854126248</v>
+      </c>
+      <c r="H87">
+        <v>0.02755274951620363</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.007194902623672582</v>
+        <v>-0.04006792468419579</v>
       </c>
       <c r="C88">
-        <v>0.02119707680049439</v>
+        <v>-0.002175788654270602</v>
       </c>
       <c r="D88">
-        <v>-0.02100450366181109</v>
+        <v>0.01098373913023342</v>
       </c>
       <c r="E88">
-        <v>-0.002812137925432534</v>
+        <v>-0.005785169276316187</v>
       </c>
       <c r="F88">
-        <v>-0.0319843705038635</v>
+        <v>-0.01036059640769885</v>
       </c>
       <c r="G88">
-        <v>0.08762864751247401</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.004400655261094403</v>
+      </c>
+      <c r="H88">
+        <v>0.01390624649118737</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1177692466046131</v>
+        <v>-0.1859583875443774</v>
       </c>
       <c r="C89">
-        <v>0.09982980554104359</v>
+        <v>0.06369697733705311</v>
       </c>
       <c r="D89">
-        <v>-0.02395338745914325</v>
+        <v>0.3298369748073108</v>
       </c>
       <c r="E89">
-        <v>-0.3123304941956219</v>
+        <v>0.06114714489498466</v>
       </c>
       <c r="F89">
-        <v>-0.0952761379278559</v>
+        <v>0.1947684249101314</v>
       </c>
       <c r="G89">
-        <v>0.03783399027304709</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.01211640589883722</v>
+      </c>
+      <c r="H89">
+        <v>-0.01983926718595653</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1115332686120356</v>
+        <v>-0.1440235548036916</v>
       </c>
       <c r="C90">
-        <v>0.1014417698044612</v>
+        <v>0.04932558022395341</v>
       </c>
       <c r="D90">
-        <v>-0.07808300134214932</v>
+        <v>0.2813105000867854</v>
       </c>
       <c r="E90">
-        <v>-0.2823334458531406</v>
+        <v>0.03285849797538163</v>
       </c>
       <c r="F90">
-        <v>-0.06153527159293239</v>
+        <v>0.1795516704596792</v>
       </c>
       <c r="G90">
-        <v>-0.01784216807031055</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02465878533764394</v>
+      </c>
+      <c r="H90">
+        <v>-0.04121508257097899</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2836555621078579</v>
+        <v>-0.2250579072772948</v>
       </c>
       <c r="C91">
-        <v>0.1075623000386039</v>
+        <v>0.1545757590599603</v>
       </c>
       <c r="D91">
-        <v>0.0596819221123803</v>
+        <v>-0.07683711950566689</v>
       </c>
       <c r="E91">
-        <v>0.05387116648273722</v>
+        <v>0.02759703474263873</v>
       </c>
       <c r="F91">
-        <v>0.2493633005323024</v>
+        <v>-0.1449742314045373</v>
       </c>
       <c r="G91">
-        <v>0.02523580750047338</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.2186657418175071</v>
+      </c>
+      <c r="H91">
+        <v>-0.1141532445662195</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1824353132557559</v>
+        <v>-0.2035923738403147</v>
       </c>
       <c r="C92">
-        <v>0.09650054605432919</v>
+        <v>0.1326759147663573</v>
       </c>
       <c r="D92">
-        <v>-0.09948585665520562</v>
+        <v>0.2475129341059988</v>
       </c>
       <c r="E92">
-        <v>-0.4306641964231405</v>
+        <v>0.02287991657926021</v>
       </c>
       <c r="F92">
-        <v>-0.1201630995589612</v>
+        <v>0.1526097366045783</v>
       </c>
       <c r="G92">
-        <v>0.3410495469220835</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.03572140195900963</v>
+      </c>
+      <c r="H92">
+        <v>-0.1351951714361554</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1213165256372334</v>
+        <v>-0.1647816866910193</v>
       </c>
       <c r="C93">
-        <v>0.08667418542269217</v>
+        <v>0.06365340197299885</v>
       </c>
       <c r="D93">
-        <v>-0.08425873307185756</v>
+        <v>0.304365683436242</v>
       </c>
       <c r="E93">
-        <v>-0.3971712977807504</v>
+        <v>0.0491694741578294</v>
       </c>
       <c r="F93">
-        <v>-0.01520977739376822</v>
+        <v>0.2207683501793437</v>
       </c>
       <c r="G93">
-        <v>-0.03143992441761278</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.02909216394785419</v>
+      </c>
+      <c r="H93">
+        <v>0.01455120934805479</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2578465609999688</v>
+        <v>-0.2455384756714952</v>
       </c>
       <c r="C94">
-        <v>0.1354846109645945</v>
+        <v>0.1474683004523078</v>
       </c>
       <c r="D94">
-        <v>0.02571916013328899</v>
+        <v>-0.05417093577655275</v>
       </c>
       <c r="E94">
-        <v>0.0808558245923082</v>
+        <v>0.04119047484409865</v>
       </c>
       <c r="F94">
-        <v>0.2984371246314964</v>
+        <v>-0.163584232789525</v>
       </c>
       <c r="G94">
-        <v>-0.0004516569472290838</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2346286796940823</v>
+      </c>
+      <c r="H94">
+        <v>-0.1280691375495838</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.09076456652410667</v>
+        <v>-0.06737517162466587</v>
       </c>
       <c r="C95">
-        <v>0.02215987816554184</v>
+        <v>0.04907018037478301</v>
       </c>
       <c r="D95">
-        <v>0.06954328479369398</v>
+        <v>-0.06856853945725416</v>
       </c>
       <c r="E95">
-        <v>0.09289486401019133</v>
+        <v>0.07813157257896892</v>
       </c>
       <c r="F95">
-        <v>-0.06113359603827903</v>
+        <v>-0.03544761834091169</v>
       </c>
       <c r="G95">
-        <v>0.3518331413500965</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.06601372409300575</v>
+      </c>
+      <c r="H95">
+        <v>0.008332808980181263</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1802577239643497</v>
+        <v>-0.1637758892143117</v>
       </c>
       <c r="C98">
-        <v>0.06194650255434715</v>
+        <v>0.102845033154962</v>
       </c>
       <c r="D98">
-        <v>0.04538320845222613</v>
+        <v>-0.00362681245142565</v>
       </c>
       <c r="E98">
-        <v>-0.07426360639259311</v>
+        <v>0.06140602889004396</v>
       </c>
       <c r="F98">
-        <v>-0.09314399904631673</v>
+        <v>-0.03047452736397573</v>
       </c>
       <c r="G98">
-        <v>-0.2738788769915351</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.1689801589528316</v>
+      </c>
+      <c r="H98">
+        <v>0.3646393771731225</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.00319249892772082</v>
+        <v>-0.01413270254215243</v>
       </c>
       <c r="C101">
-        <v>0.02697034295928318</v>
+        <v>0.003106278652681154</v>
       </c>
       <c r="D101">
-        <v>0.01037995933847279</v>
+        <v>-0.005073190827418657</v>
       </c>
       <c r="E101">
-        <v>0.1193507903393672</v>
+        <v>-0.003779003301337126</v>
       </c>
       <c r="F101">
-        <v>-0.1846604838104989</v>
+        <v>-0.03692963656641622</v>
       </c>
       <c r="G101">
-        <v>-0.02699189158049296</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.09414793591665731</v>
+      </c>
+      <c r="H101">
+        <v>-0.06970503769218829</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09625934610587993</v>
+        <v>-0.1063893138036095</v>
       </c>
       <c r="C102">
-        <v>0.0285411631035584</v>
+        <v>0.05936563385653505</v>
       </c>
       <c r="D102">
-        <v>0.01379242976726405</v>
+        <v>-0.04283740196121224</v>
       </c>
       <c r="E102">
-        <v>0.08267083470072321</v>
+        <v>0.004976872134458642</v>
       </c>
       <c r="F102">
-        <v>0.1389831493634414</v>
+        <v>-0.07355574153152521</v>
       </c>
       <c r="G102">
-        <v>0.08166045781431353</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.1014506162244903</v>
+      </c>
+      <c r="H102">
+        <v>-0.05833321983427459</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02561319245623503</v>
+        <v>-0.02215350893340732</v>
       </c>
       <c r="C103">
-        <v>0.009908763419292995</v>
+        <v>0.01345607613602113</v>
       </c>
       <c r="D103">
-        <v>0.008394515578264056</v>
+        <v>-0.01217714676669679</v>
       </c>
       <c r="E103">
-        <v>0.01693220396658463</v>
+        <v>-0.005887540137829257</v>
       </c>
       <c r="F103">
-        <v>0.02675338839676221</v>
+        <v>-0.01854490215278504</v>
       </c>
       <c r="G103">
-        <v>0.03311792425377486</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01093428673329141</v>
+      </c>
+      <c r="H103">
+        <v>-0.008335285404124164</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.4459784245177486</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.8721248213822711</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.06159577159684408</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02580306490389013</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1566797991475569</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.03972050896338871</v>
+      </c>
+      <c r="H104">
+        <v>-0.03260260950370156</v>
       </c>
     </row>
   </sheetData>
